--- a/DDT/loginsheet_fb.xlsx
+++ b/DDT/loginsheet_fb.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\Selenium_Assignments\DDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Gitrepo_MavenProject_FB\Maven_Facebook\DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15A0110-CB82-4F3C-89FF-5F166C089303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DCFE8F-746C-4B40-BE23-F3B78E61146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5023AAED-39FB-47D3-89B5-EA272EF04396}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5023AAED-39FB-47D3-89B5-EA272EF04396}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="amazonlogin" sheetId="2" r:id="rId2"/>
-    <sheet name="facebooklogin" sheetId="3" r:id="rId3"/>
+    <sheet name="facebooklogin" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,21 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>channaanusha10@gmail.com</t>
-  </si>
-  <si>
-    <t>Anusha1010</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Anusha@1996</t>
-  </si>
-  <si>
-    <t>Anusha1996@</t>
-  </si>
-  <si>
-    <t>9912117833@axl</t>
   </si>
 </sst>
 </file>
@@ -412,75 +398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22039482-AEF2-4677-BD27-3C37D6836D8F}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{9328DF91-AB2A-4773-A95D-0956C6CD4567}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DB3F97-9FFF-41F4-8325-E0491AD1F156}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>9912117833</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{3739BEF1-9903-408E-A424-B20EF11C966C}"/>
-    <hyperlink ref="C1" r:id="rId2" xr:uid="{CF1C2EBC-E4AD-4EF2-9D3D-B152C5AC2694}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39236A5E-F646-41A8-BCD6-16058EE791C6}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -496,7 +417,7 @@
         <v>9912117833</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
